--- a/SDR_Mother.xlsx
+++ b/SDR_Mother.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ti/Sites/GitHub/Dash_websites/Dash_USAID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6142827C-159D-A849-B6ED-78B115C9BAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B328E2F-CD57-8B47-8180-3CE38533785C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8900" yWindow="500" windowWidth="20260" windowHeight="18800" xr2:uid="{0A5B8C10-7B30-FE48-967D-2F37E0741332}"/>
   </bookViews>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC30F5C-A41A-9B4F-A45D-8FBEF2053A2A}">
-  <dimension ref="A1:E693"/>
+  <dimension ref="A1:E1039"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="A348" sqref="A348:XFD693"/>
+    <sheetView tabSelected="1" topLeftCell="A672" workbookViewId="0">
+      <selection activeCell="A694" sqref="A694:XFD1039"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12209,6 +12209,5888 @@
         <v>3</v>
       </c>
       <c r="E693" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A694">
+        <v>2</v>
+      </c>
+      <c r="B694">
+        <v>2</v>
+      </c>
+      <c r="C694">
+        <v>30</v>
+      </c>
+      <c r="D694">
+        <v>5</v>
+      </c>
+      <c r="E694">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A695">
+        <v>2</v>
+      </c>
+      <c r="B695">
+        <v>2</v>
+      </c>
+      <c r="C695">
+        <v>21</v>
+      </c>
+      <c r="D695">
+        <v>2</v>
+      </c>
+      <c r="E695">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A696">
+        <v>2</v>
+      </c>
+      <c r="B696">
+        <v>1</v>
+      </c>
+      <c r="C696">
+        <v>33</v>
+      </c>
+      <c r="D696">
+        <v>6</v>
+      </c>
+      <c r="E696">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A697">
+        <v>2</v>
+      </c>
+      <c r="B697">
+        <v>2</v>
+      </c>
+      <c r="C697">
+        <v>40</v>
+      </c>
+      <c r="D697">
+        <v>7</v>
+      </c>
+      <c r="E697">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A698">
+        <v>1</v>
+      </c>
+      <c r="B698">
+        <v>2</v>
+      </c>
+      <c r="C698">
+        <v>21</v>
+      </c>
+      <c r="D698">
+        <v>2</v>
+      </c>
+      <c r="E698">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A699">
+        <v>2</v>
+      </c>
+      <c r="B699">
+        <v>2</v>
+      </c>
+      <c r="C699">
+        <v>41</v>
+      </c>
+      <c r="D699">
+        <v>8</v>
+      </c>
+      <c r="E699">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A700">
+        <v>2</v>
+      </c>
+      <c r="B700">
+        <v>2</v>
+      </c>
+      <c r="C700">
+        <v>32</v>
+      </c>
+      <c r="D700">
+        <v>3</v>
+      </c>
+      <c r="E700">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A701">
+        <v>3</v>
+      </c>
+      <c r="B701">
+        <v>2</v>
+      </c>
+      <c r="C701">
+        <v>27</v>
+      </c>
+      <c r="D701">
+        <v>1</v>
+      </c>
+      <c r="E701">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A702">
+        <v>3</v>
+      </c>
+      <c r="B702">
+        <v>2</v>
+      </c>
+      <c r="C702">
+        <v>31</v>
+      </c>
+      <c r="D702">
+        <v>3</v>
+      </c>
+      <c r="E702">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A703">
+        <v>4</v>
+      </c>
+      <c r="B703">
+        <v>3</v>
+      </c>
+      <c r="C703">
+        <v>32</v>
+      </c>
+      <c r="D703">
+        <v>5</v>
+      </c>
+      <c r="E703">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A704">
+        <v>3</v>
+      </c>
+      <c r="B704">
+        <v>3</v>
+      </c>
+      <c r="C704">
+        <v>21</v>
+      </c>
+      <c r="D704">
+        <v>1</v>
+      </c>
+      <c r="E704">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A705">
+        <v>3</v>
+      </c>
+      <c r="B705">
+        <v>4</v>
+      </c>
+      <c r="C705">
+        <v>30</v>
+      </c>
+      <c r="D705">
+        <v>1</v>
+      </c>
+      <c r="E705">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A706">
+        <v>2</v>
+      </c>
+      <c r="B706">
+        <v>2</v>
+      </c>
+      <c r="C706">
+        <v>23</v>
+      </c>
+      <c r="D706">
+        <v>3</v>
+      </c>
+      <c r="E706">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A707">
+        <v>4</v>
+      </c>
+      <c r="B707">
+        <v>2</v>
+      </c>
+      <c r="C707">
+        <v>32</v>
+      </c>
+      <c r="D707">
+        <v>5</v>
+      </c>
+      <c r="E707">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A708">
+        <v>2</v>
+      </c>
+      <c r="B708">
+        <v>2</v>
+      </c>
+      <c r="C708">
+        <v>20</v>
+      </c>
+      <c r="D708">
+        <v>2</v>
+      </c>
+      <c r="E708">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A709">
+        <v>3</v>
+      </c>
+      <c r="B709">
+        <v>2</v>
+      </c>
+      <c r="C709">
+        <v>47</v>
+      </c>
+      <c r="D709">
+        <v>9</v>
+      </c>
+      <c r="E709">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A710">
+        <v>3</v>
+      </c>
+      <c r="B710">
+        <v>3</v>
+      </c>
+      <c r="C710">
+        <v>26</v>
+      </c>
+      <c r="D710">
+        <v>2</v>
+      </c>
+      <c r="E710">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A711">
+        <v>2</v>
+      </c>
+      <c r="B711">
+        <v>2</v>
+      </c>
+      <c r="C711">
+        <v>29</v>
+      </c>
+      <c r="D711">
+        <v>3</v>
+      </c>
+      <c r="E711">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A712">
+        <v>4</v>
+      </c>
+      <c r="B712">
+        <v>2</v>
+      </c>
+      <c r="C712">
+        <v>37</v>
+      </c>
+      <c r="D712">
+        <v>8</v>
+      </c>
+      <c r="E712">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A713">
+        <v>3</v>
+      </c>
+      <c r="B713">
+        <v>1</v>
+      </c>
+      <c r="C713">
+        <v>37</v>
+      </c>
+      <c r="D713">
+        <v>6</v>
+      </c>
+      <c r="E713">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A714">
+        <v>4</v>
+      </c>
+      <c r="B714">
+        <v>3</v>
+      </c>
+      <c r="C714">
+        <v>39</v>
+      </c>
+      <c r="D714">
+        <v>4</v>
+      </c>
+      <c r="E714">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A715">
+        <v>2</v>
+      </c>
+      <c r="B715">
+        <v>2</v>
+      </c>
+      <c r="C715">
+        <v>33</v>
+      </c>
+      <c r="D715">
+        <v>5</v>
+      </c>
+      <c r="E715">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A716">
+        <v>4</v>
+      </c>
+      <c r="B716">
+        <v>3</v>
+      </c>
+      <c r="C716">
+        <v>35</v>
+      </c>
+      <c r="D716">
+        <v>4</v>
+      </c>
+      <c r="E716">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A717">
+        <v>3</v>
+      </c>
+      <c r="B717">
+        <v>2</v>
+      </c>
+      <c r="C717">
+        <v>30</v>
+      </c>
+      <c r="D717">
+        <v>5</v>
+      </c>
+      <c r="E717">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A718">
+        <v>4</v>
+      </c>
+      <c r="B718">
+        <v>3</v>
+      </c>
+      <c r="C718">
+        <v>43</v>
+      </c>
+      <c r="D718">
+        <v>7</v>
+      </c>
+      <c r="E718">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A719">
+        <v>2</v>
+      </c>
+      <c r="B719">
+        <v>2</v>
+      </c>
+      <c r="C719">
+        <v>32</v>
+      </c>
+      <c r="D719">
+        <v>7</v>
+      </c>
+      <c r="E719">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A720">
+        <v>3</v>
+      </c>
+      <c r="B720">
+        <v>2</v>
+      </c>
+      <c r="C720">
+        <v>36</v>
+      </c>
+      <c r="D720">
+        <v>9</v>
+      </c>
+      <c r="E720">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A721">
+        <v>3</v>
+      </c>
+      <c r="B721">
+        <v>2</v>
+      </c>
+      <c r="C721">
+        <v>39</v>
+      </c>
+      <c r="D721">
+        <v>5</v>
+      </c>
+      <c r="E721">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A722">
+        <v>1</v>
+      </c>
+      <c r="B722">
+        <v>2</v>
+      </c>
+      <c r="C722">
+        <v>25</v>
+      </c>
+      <c r="D722">
+        <v>3</v>
+      </c>
+      <c r="E722">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A723">
+        <v>4</v>
+      </c>
+      <c r="B723">
+        <v>2</v>
+      </c>
+      <c r="C723">
+        <v>29</v>
+      </c>
+      <c r="D723">
+        <v>4</v>
+      </c>
+      <c r="E723">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A724">
+        <v>4</v>
+      </c>
+      <c r="B724">
+        <v>3</v>
+      </c>
+      <c r="C724">
+        <v>19</v>
+      </c>
+      <c r="D724">
+        <v>1</v>
+      </c>
+      <c r="E724">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A725">
+        <v>2</v>
+      </c>
+      <c r="B725">
+        <v>2</v>
+      </c>
+      <c r="C725">
+        <v>26</v>
+      </c>
+      <c r="D725">
+        <v>6</v>
+      </c>
+      <c r="E725">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A726">
+        <v>3</v>
+      </c>
+      <c r="B726">
+        <v>3</v>
+      </c>
+      <c r="C726">
+        <v>28</v>
+      </c>
+      <c r="D726">
+        <v>8</v>
+      </c>
+      <c r="E726">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A727">
+        <v>2</v>
+      </c>
+      <c r="B727">
+        <v>3</v>
+      </c>
+      <c r="C727">
+        <v>22</v>
+      </c>
+      <c r="D727">
+        <v>3</v>
+      </c>
+      <c r="E727">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A728">
+        <v>2</v>
+      </c>
+      <c r="B728">
+        <v>2</v>
+      </c>
+      <c r="C728">
+        <v>30</v>
+      </c>
+      <c r="D728">
+        <v>4</v>
+      </c>
+      <c r="E728">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A729">
+        <v>4</v>
+      </c>
+      <c r="B729">
+        <v>3</v>
+      </c>
+      <c r="C729">
+        <v>37</v>
+      </c>
+      <c r="D729">
+        <v>4</v>
+      </c>
+      <c r="E729">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A730">
+        <v>3</v>
+      </c>
+      <c r="B730">
+        <v>2</v>
+      </c>
+      <c r="C730">
+        <v>27</v>
+      </c>
+      <c r="D730">
+        <v>5</v>
+      </c>
+      <c r="E730">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A731">
+        <v>2</v>
+      </c>
+      <c r="B731">
+        <v>3</v>
+      </c>
+      <c r="C731">
+        <v>26</v>
+      </c>
+      <c r="D731">
+        <v>5</v>
+      </c>
+      <c r="E731">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A732">
+        <v>5</v>
+      </c>
+      <c r="B732">
+        <v>2</v>
+      </c>
+      <c r="C732">
+        <v>24</v>
+      </c>
+      <c r="D732">
+        <v>3</v>
+      </c>
+      <c r="E732">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A733">
+        <v>5</v>
+      </c>
+      <c r="B733">
+        <v>3</v>
+      </c>
+      <c r="C733">
+        <v>24</v>
+      </c>
+      <c r="D733">
+        <v>2</v>
+      </c>
+      <c r="E733">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A734">
+        <v>5</v>
+      </c>
+      <c r="B734">
+        <v>2</v>
+      </c>
+      <c r="C734">
+        <v>22</v>
+      </c>
+      <c r="D734">
+        <v>1</v>
+      </c>
+      <c r="E734">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A735">
+        <v>4</v>
+      </c>
+      <c r="B735">
+        <v>4</v>
+      </c>
+      <c r="C735">
+        <v>29</v>
+      </c>
+      <c r="D735">
+        <v>1</v>
+      </c>
+      <c r="E735">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A736">
+        <v>5</v>
+      </c>
+      <c r="B736">
+        <v>4</v>
+      </c>
+      <c r="C736">
+        <v>20</v>
+      </c>
+      <c r="D736">
+        <v>1</v>
+      </c>
+      <c r="E736">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A737">
+        <v>5</v>
+      </c>
+      <c r="B737">
+        <v>3</v>
+      </c>
+      <c r="C737">
+        <v>31</v>
+      </c>
+      <c r="D737">
+        <v>3</v>
+      </c>
+      <c r="E737">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A738">
+        <v>3</v>
+      </c>
+      <c r="B738">
+        <v>2</v>
+      </c>
+      <c r="C738">
+        <v>37</v>
+      </c>
+      <c r="D738">
+        <v>4</v>
+      </c>
+      <c r="E738">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A739">
+        <v>4</v>
+      </c>
+      <c r="B739">
+        <v>2</v>
+      </c>
+      <c r="C739">
+        <v>32</v>
+      </c>
+      <c r="D739">
+        <v>2</v>
+      </c>
+      <c r="E739">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A740">
+        <v>4</v>
+      </c>
+      <c r="B740">
+        <v>3</v>
+      </c>
+      <c r="C740">
+        <v>30</v>
+      </c>
+      <c r="D740">
+        <v>3</v>
+      </c>
+      <c r="E740">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A741">
+        <v>4</v>
+      </c>
+      <c r="B741">
+        <v>2</v>
+      </c>
+      <c r="C741">
+        <v>22</v>
+      </c>
+      <c r="D741">
+        <v>2</v>
+      </c>
+      <c r="E741">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A742">
+        <v>5</v>
+      </c>
+      <c r="B742">
+        <v>4</v>
+      </c>
+      <c r="C742">
+        <v>30</v>
+      </c>
+      <c r="D742">
+        <v>2</v>
+      </c>
+      <c r="E742">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A743">
+        <v>5</v>
+      </c>
+      <c r="B743">
+        <v>4</v>
+      </c>
+      <c r="C743">
+        <v>28</v>
+      </c>
+      <c r="D743">
+        <v>2</v>
+      </c>
+      <c r="E743">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A744">
+        <v>4</v>
+      </c>
+      <c r="B744">
+        <v>2</v>
+      </c>
+      <c r="C744">
+        <v>25</v>
+      </c>
+      <c r="D744">
+        <v>2</v>
+      </c>
+      <c r="E744">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A745">
+        <v>4</v>
+      </c>
+      <c r="B745">
+        <v>2</v>
+      </c>
+      <c r="C745">
+        <v>30</v>
+      </c>
+      <c r="D745">
+        <v>4</v>
+      </c>
+      <c r="E745">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A746">
+        <v>4</v>
+      </c>
+      <c r="B746">
+        <v>3</v>
+      </c>
+      <c r="C746">
+        <v>25</v>
+      </c>
+      <c r="D746">
+        <v>2</v>
+      </c>
+      <c r="E746">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A747">
+        <v>3</v>
+      </c>
+      <c r="B747">
+        <v>2</v>
+      </c>
+      <c r="C747">
+        <v>19</v>
+      </c>
+      <c r="D747">
+        <v>1</v>
+      </c>
+      <c r="E747">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A748">
+        <v>3</v>
+      </c>
+      <c r="B748">
+        <v>2</v>
+      </c>
+      <c r="C748">
+        <v>17</v>
+      </c>
+      <c r="D748">
+        <v>1</v>
+      </c>
+      <c r="E748">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A749">
+        <v>4</v>
+      </c>
+      <c r="B749">
+        <v>4</v>
+      </c>
+      <c r="C749">
+        <v>30</v>
+      </c>
+      <c r="D749">
+        <v>2</v>
+      </c>
+      <c r="E749">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A750">
+        <v>5</v>
+      </c>
+      <c r="B750">
+        <v>3</v>
+      </c>
+      <c r="C750">
+        <v>22</v>
+      </c>
+      <c r="D750">
+        <v>1</v>
+      </c>
+      <c r="E750">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A751">
+        <v>4</v>
+      </c>
+      <c r="B751">
+        <v>2</v>
+      </c>
+      <c r="C751">
+        <v>26</v>
+      </c>
+      <c r="D751">
+        <v>2</v>
+      </c>
+      <c r="E751">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A752">
+        <v>4</v>
+      </c>
+      <c r="B752">
+        <v>3</v>
+      </c>
+      <c r="C752">
+        <v>21</v>
+      </c>
+      <c r="D752">
+        <v>2</v>
+      </c>
+      <c r="E752">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A753">
+        <v>4</v>
+      </c>
+      <c r="B753">
+        <v>2</v>
+      </c>
+      <c r="C753">
+        <v>29</v>
+      </c>
+      <c r="D753">
+        <v>1</v>
+      </c>
+      <c r="E753">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A754">
+        <v>3</v>
+      </c>
+      <c r="B754">
+        <v>2</v>
+      </c>
+      <c r="C754">
+        <v>34</v>
+      </c>
+      <c r="D754">
+        <v>5</v>
+      </c>
+      <c r="E754">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A755">
+        <v>3</v>
+      </c>
+      <c r="B755">
+        <v>3</v>
+      </c>
+      <c r="C755">
+        <v>36</v>
+      </c>
+      <c r="D755">
+        <v>4</v>
+      </c>
+      <c r="E755">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A756">
+        <v>3</v>
+      </c>
+      <c r="B756">
+        <v>3</v>
+      </c>
+      <c r="C756">
+        <v>19</v>
+      </c>
+      <c r="D756">
+        <v>1</v>
+      </c>
+      <c r="E756">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A757">
+        <v>5</v>
+      </c>
+      <c r="B757">
+        <v>4</v>
+      </c>
+      <c r="C757">
+        <v>37</v>
+      </c>
+      <c r="D757">
+        <v>2</v>
+      </c>
+      <c r="E757">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A758">
+        <v>4</v>
+      </c>
+      <c r="B758">
+        <v>3</v>
+      </c>
+      <c r="C758">
+        <v>31</v>
+      </c>
+      <c r="D758">
+        <v>2</v>
+      </c>
+      <c r="E758">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A759">
+        <v>5</v>
+      </c>
+      <c r="B759">
+        <v>4</v>
+      </c>
+      <c r="C759">
+        <v>25</v>
+      </c>
+      <c r="D759">
+        <v>1</v>
+      </c>
+      <c r="E759">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A760">
+        <v>2</v>
+      </c>
+      <c r="B760">
+        <v>2</v>
+      </c>
+      <c r="C760">
+        <v>15</v>
+      </c>
+      <c r="D760">
+        <v>1</v>
+      </c>
+      <c r="E760">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A761">
+        <v>5</v>
+      </c>
+      <c r="B761">
+        <v>3</v>
+      </c>
+      <c r="C761">
+        <v>30</v>
+      </c>
+      <c r="D761">
+        <v>4</v>
+      </c>
+      <c r="E761">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A762">
+        <v>4</v>
+      </c>
+      <c r="B762">
+        <v>3</v>
+      </c>
+      <c r="C762">
+        <v>30</v>
+      </c>
+      <c r="D762">
+        <v>3</v>
+      </c>
+      <c r="E762">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A763">
+        <v>5</v>
+      </c>
+      <c r="B763">
+        <v>3</v>
+      </c>
+      <c r="C763">
+        <v>30</v>
+      </c>
+      <c r="D763">
+        <v>3</v>
+      </c>
+      <c r="E763">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A764">
+        <v>5</v>
+      </c>
+      <c r="B764">
+        <v>2</v>
+      </c>
+      <c r="C764">
+        <v>31</v>
+      </c>
+      <c r="D764">
+        <v>3</v>
+      </c>
+      <c r="E764">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A765">
+        <v>3</v>
+      </c>
+      <c r="B765">
+        <v>3</v>
+      </c>
+      <c r="C765">
+        <v>23</v>
+      </c>
+      <c r="D765">
+        <v>1</v>
+      </c>
+      <c r="E765">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A766">
+        <v>2</v>
+      </c>
+      <c r="B766">
+        <v>2</v>
+      </c>
+      <c r="C766">
+        <v>30</v>
+      </c>
+      <c r="D766">
+        <v>4</v>
+      </c>
+      <c r="E766">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A767">
+        <v>2</v>
+      </c>
+      <c r="B767">
+        <v>2</v>
+      </c>
+      <c r="C767">
+        <v>28</v>
+      </c>
+      <c r="D767">
+        <v>4</v>
+      </c>
+      <c r="E767">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A768">
+        <v>2</v>
+      </c>
+      <c r="B768">
+        <v>3</v>
+      </c>
+      <c r="C768">
+        <v>30</v>
+      </c>
+      <c r="D768">
+        <v>6</v>
+      </c>
+      <c r="E768">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A769">
+        <v>3</v>
+      </c>
+      <c r="B769">
+        <v>3</v>
+      </c>
+      <c r="C769">
+        <v>21</v>
+      </c>
+      <c r="D769">
+        <v>1</v>
+      </c>
+      <c r="E769">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A770">
+        <v>5</v>
+      </c>
+      <c r="B770">
+        <v>3</v>
+      </c>
+      <c r="C770">
+        <v>29</v>
+      </c>
+      <c r="D770">
+        <v>2</v>
+      </c>
+      <c r="E770">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A771">
+        <v>3</v>
+      </c>
+      <c r="B771">
+        <v>4</v>
+      </c>
+      <c r="C771">
+        <v>30</v>
+      </c>
+      <c r="D771">
+        <v>1</v>
+      </c>
+      <c r="E771">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A772">
+        <v>5</v>
+      </c>
+      <c r="B772">
+        <v>2</v>
+      </c>
+      <c r="C772">
+        <v>28</v>
+      </c>
+      <c r="D772">
+        <v>2</v>
+      </c>
+      <c r="E772">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A773">
+        <v>3</v>
+      </c>
+      <c r="B773">
+        <v>3</v>
+      </c>
+      <c r="C773">
+        <v>36</v>
+      </c>
+      <c r="D773">
+        <v>4</v>
+      </c>
+      <c r="E773">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A774">
+        <v>2</v>
+      </c>
+      <c r="B774">
+        <v>2</v>
+      </c>
+      <c r="C774">
+        <v>45</v>
+      </c>
+      <c r="D774">
+        <v>10</v>
+      </c>
+      <c r="E774">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A775">
+        <v>4</v>
+      </c>
+      <c r="B775">
+        <v>4</v>
+      </c>
+      <c r="C775">
+        <v>22</v>
+      </c>
+      <c r="D775">
+        <v>1</v>
+      </c>
+      <c r="E775">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A776">
+        <v>2</v>
+      </c>
+      <c r="B776">
+        <v>2</v>
+      </c>
+      <c r="C776">
+        <v>22</v>
+      </c>
+      <c r="D776">
+        <v>4</v>
+      </c>
+      <c r="E776">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A777">
+        <v>4</v>
+      </c>
+      <c r="B777">
+        <v>1</v>
+      </c>
+      <c r="C777">
+        <v>30</v>
+      </c>
+      <c r="D777">
+        <v>6</v>
+      </c>
+      <c r="E777">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A778">
+        <v>1</v>
+      </c>
+      <c r="B778">
+        <v>2</v>
+      </c>
+      <c r="C778">
+        <v>19</v>
+      </c>
+      <c r="D778">
+        <v>1</v>
+      </c>
+      <c r="E778">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A779">
+        <v>2</v>
+      </c>
+      <c r="B779">
+        <v>3</v>
+      </c>
+      <c r="C779">
+        <v>27</v>
+      </c>
+      <c r="D779">
+        <v>2</v>
+      </c>
+      <c r="E779">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A780">
+        <v>3</v>
+      </c>
+      <c r="B780">
+        <v>2</v>
+      </c>
+      <c r="C780">
+        <v>40</v>
+      </c>
+      <c r="D780">
+        <v>5</v>
+      </c>
+      <c r="E780">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A781">
+        <v>1</v>
+      </c>
+      <c r="B781">
+        <v>2</v>
+      </c>
+      <c r="C781">
+        <v>35</v>
+      </c>
+      <c r="D781">
+        <v>3</v>
+      </c>
+      <c r="E781">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A782">
+        <v>2</v>
+      </c>
+      <c r="B782">
+        <v>2</v>
+      </c>
+      <c r="C782">
+        <v>40</v>
+      </c>
+      <c r="D782">
+        <v>8</v>
+      </c>
+      <c r="E782">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A783">
+        <v>3</v>
+      </c>
+      <c r="B783">
+        <v>2</v>
+      </c>
+      <c r="C783">
+        <v>25</v>
+      </c>
+      <c r="D783">
+        <v>2</v>
+      </c>
+      <c r="E783">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A784">
+        <v>4</v>
+      </c>
+      <c r="B784">
+        <v>2</v>
+      </c>
+      <c r="C784">
+        <v>36</v>
+      </c>
+      <c r="D784">
+        <v>3</v>
+      </c>
+      <c r="E784">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A785">
+        <v>4</v>
+      </c>
+      <c r="B785">
+        <v>2</v>
+      </c>
+      <c r="C785">
+        <v>38</v>
+      </c>
+      <c r="D785">
+        <v>6</v>
+      </c>
+      <c r="E785">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="786" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A786">
+        <v>4</v>
+      </c>
+      <c r="B786">
+        <v>4</v>
+      </c>
+      <c r="C786">
+        <v>38</v>
+      </c>
+      <c r="D786">
+        <v>3</v>
+      </c>
+      <c r="E786">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A787">
+        <v>3</v>
+      </c>
+      <c r="B787">
+        <v>3</v>
+      </c>
+      <c r="C787">
+        <v>47</v>
+      </c>
+      <c r="D787">
+        <v>8</v>
+      </c>
+      <c r="E787">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A788">
+        <v>3</v>
+      </c>
+      <c r="B788">
+        <v>2</v>
+      </c>
+      <c r="C788">
+        <v>29</v>
+      </c>
+      <c r="D788">
+        <v>4</v>
+      </c>
+      <c r="E788">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A789">
+        <v>2</v>
+      </c>
+      <c r="B789">
+        <v>2</v>
+      </c>
+      <c r="C789">
+        <v>40</v>
+      </c>
+      <c r="D789">
+        <v>5</v>
+      </c>
+      <c r="E789">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="790" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A790">
+        <v>2</v>
+      </c>
+      <c r="B790">
+        <v>2</v>
+      </c>
+      <c r="C790">
+        <v>32</v>
+      </c>
+      <c r="D790">
+        <v>5</v>
+      </c>
+      <c r="E790">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="791" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A791">
+        <v>2</v>
+      </c>
+      <c r="B791">
+        <v>2</v>
+      </c>
+      <c r="C791">
+        <v>24</v>
+      </c>
+      <c r="D791">
+        <v>3</v>
+      </c>
+      <c r="E791">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="792" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A792">
+        <v>3</v>
+      </c>
+      <c r="B792">
+        <v>2</v>
+      </c>
+      <c r="C792">
+        <v>29</v>
+      </c>
+      <c r="D792">
+        <v>6</v>
+      </c>
+      <c r="E792">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="793" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A793">
+        <v>1</v>
+      </c>
+      <c r="B793">
+        <v>2</v>
+      </c>
+      <c r="C793">
+        <v>25</v>
+      </c>
+      <c r="D793">
+        <v>3</v>
+      </c>
+      <c r="E793">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="794" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A794">
+        <v>2</v>
+      </c>
+      <c r="B794">
+        <v>2</v>
+      </c>
+      <c r="C794">
+        <v>22</v>
+      </c>
+      <c r="D794">
+        <v>2</v>
+      </c>
+      <c r="E794">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A795">
+        <v>2</v>
+      </c>
+      <c r="B795">
+        <v>2</v>
+      </c>
+      <c r="C795">
+        <v>19</v>
+      </c>
+      <c r="D795">
+        <v>1</v>
+      </c>
+      <c r="E795">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A796">
+        <v>2</v>
+      </c>
+      <c r="B796">
+        <v>4</v>
+      </c>
+      <c r="C796">
+        <v>24</v>
+      </c>
+      <c r="D796">
+        <v>1</v>
+      </c>
+      <c r="E796">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="797" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A797">
+        <v>2</v>
+      </c>
+      <c r="B797">
+        <v>2</v>
+      </c>
+      <c r="C797">
+        <v>18</v>
+      </c>
+      <c r="D797">
+        <v>1</v>
+      </c>
+      <c r="E797">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A798">
+        <v>1</v>
+      </c>
+      <c r="B798">
+        <v>2</v>
+      </c>
+      <c r="C798">
+        <v>38</v>
+      </c>
+      <c r="D798">
+        <v>9</v>
+      </c>
+      <c r="E798">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="799" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A799">
+        <v>2</v>
+      </c>
+      <c r="B799">
+        <v>2</v>
+      </c>
+      <c r="C799">
+        <v>27</v>
+      </c>
+      <c r="D799">
+        <v>5</v>
+      </c>
+      <c r="E799">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="800" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A800">
+        <v>3</v>
+      </c>
+      <c r="B800">
+        <v>2</v>
+      </c>
+      <c r="C800">
+        <v>33</v>
+      </c>
+      <c r="D800">
+        <v>7</v>
+      </c>
+      <c r="E800">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A801">
+        <v>2</v>
+      </c>
+      <c r="B801">
+        <v>2</v>
+      </c>
+      <c r="C801">
+        <v>19</v>
+      </c>
+      <c r="D801">
+        <v>1</v>
+      </c>
+      <c r="E801">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="802" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A802">
+        <v>3</v>
+      </c>
+      <c r="B802">
+        <v>2</v>
+      </c>
+      <c r="C802">
+        <v>45</v>
+      </c>
+      <c r="D802">
+        <v>11</v>
+      </c>
+      <c r="E802">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A803">
+        <v>3</v>
+      </c>
+      <c r="B803">
+        <v>2</v>
+      </c>
+      <c r="C803">
+        <v>39</v>
+      </c>
+      <c r="D803">
+        <v>7</v>
+      </c>
+      <c r="E803">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A804">
+        <v>2</v>
+      </c>
+      <c r="B804">
+        <v>2</v>
+      </c>
+      <c r="C804">
+        <v>22</v>
+      </c>
+      <c r="D804">
+        <v>5</v>
+      </c>
+      <c r="E804">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="805" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A805">
+        <v>3</v>
+      </c>
+      <c r="B805">
+        <v>3</v>
+      </c>
+      <c r="C805">
+        <v>23</v>
+      </c>
+      <c r="D805">
+        <v>1</v>
+      </c>
+      <c r="E805">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A806">
+        <v>3</v>
+      </c>
+      <c r="B806">
+        <v>2</v>
+      </c>
+      <c r="C806">
+        <v>22</v>
+      </c>
+      <c r="D806">
+        <v>2</v>
+      </c>
+      <c r="E806">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A807">
+        <v>3</v>
+      </c>
+      <c r="B807">
+        <v>3</v>
+      </c>
+      <c r="C807">
+        <v>31</v>
+      </c>
+      <c r="D807">
+        <v>3</v>
+      </c>
+      <c r="E807">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A808">
+        <v>2</v>
+      </c>
+      <c r="B808">
+        <v>1</v>
+      </c>
+      <c r="C808">
+        <v>26</v>
+      </c>
+      <c r="D808">
+        <v>4</v>
+      </c>
+      <c r="E808">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A809">
+        <v>1</v>
+      </c>
+      <c r="B809">
+        <v>2</v>
+      </c>
+      <c r="C809">
+        <v>33</v>
+      </c>
+      <c r="D809">
+        <v>5</v>
+      </c>
+      <c r="E809">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A810">
+        <v>3</v>
+      </c>
+      <c r="B810">
+        <v>4</v>
+      </c>
+      <c r="C810">
+        <v>36</v>
+      </c>
+      <c r="D810">
+        <v>2</v>
+      </c>
+      <c r="E810">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A811">
+        <v>4</v>
+      </c>
+      <c r="B811">
+        <v>3</v>
+      </c>
+      <c r="C811">
+        <v>40</v>
+      </c>
+      <c r="D811">
+        <v>6</v>
+      </c>
+      <c r="E811">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A812">
+        <v>4</v>
+      </c>
+      <c r="B812">
+        <v>3</v>
+      </c>
+      <c r="C812">
+        <v>31</v>
+      </c>
+      <c r="D812">
+        <v>4</v>
+      </c>
+      <c r="E812">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A813">
+        <v>2</v>
+      </c>
+      <c r="B813">
+        <v>2</v>
+      </c>
+      <c r="C813">
+        <v>21</v>
+      </c>
+      <c r="D813">
+        <v>2</v>
+      </c>
+      <c r="E813">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A814">
+        <v>2</v>
+      </c>
+      <c r="B814">
+        <v>2</v>
+      </c>
+      <c r="C814">
+        <v>24</v>
+      </c>
+      <c r="D814">
+        <v>2</v>
+      </c>
+      <c r="E814">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A815">
+        <v>1</v>
+      </c>
+      <c r="B815">
+        <v>2</v>
+      </c>
+      <c r="C815">
+        <v>38</v>
+      </c>
+      <c r="D815">
+        <v>2</v>
+      </c>
+      <c r="E815">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A816">
+        <v>4</v>
+      </c>
+      <c r="B816">
+        <v>4</v>
+      </c>
+      <c r="C816">
+        <v>38</v>
+      </c>
+      <c r="D816">
+        <v>3</v>
+      </c>
+      <c r="E816">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A817">
+        <v>2</v>
+      </c>
+      <c r="B817">
+        <v>2</v>
+      </c>
+      <c r="C817">
+        <v>34</v>
+      </c>
+      <c r="D817">
+        <v>5</v>
+      </c>
+      <c r="E817">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="818" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A818">
+        <v>2</v>
+      </c>
+      <c r="B818">
+        <v>2</v>
+      </c>
+      <c r="C818">
+        <v>26</v>
+      </c>
+      <c r="D818">
+        <v>3</v>
+      </c>
+      <c r="E818">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A819">
+        <v>4</v>
+      </c>
+      <c r="B819">
+        <v>2</v>
+      </c>
+      <c r="C819">
+        <v>20</v>
+      </c>
+      <c r="D819">
+        <v>1</v>
+      </c>
+      <c r="E819">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A820">
+        <v>3</v>
+      </c>
+      <c r="B820">
+        <v>3</v>
+      </c>
+      <c r="C820">
+        <v>29</v>
+      </c>
+      <c r="D820">
+        <v>4</v>
+      </c>
+      <c r="E820">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="821" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A821">
+        <v>2</v>
+      </c>
+      <c r="B821">
+        <v>2</v>
+      </c>
+      <c r="C821">
+        <v>28</v>
+      </c>
+      <c r="D821">
+        <v>4</v>
+      </c>
+      <c r="E821">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A822">
+        <v>3</v>
+      </c>
+      <c r="B822">
+        <v>3</v>
+      </c>
+      <c r="C822">
+        <v>28</v>
+      </c>
+      <c r="D822">
+        <v>4</v>
+      </c>
+      <c r="E822">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="823" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A823">
+        <v>2</v>
+      </c>
+      <c r="B823">
+        <v>3</v>
+      </c>
+      <c r="C823">
+        <v>24</v>
+      </c>
+      <c r="D823">
+        <v>1</v>
+      </c>
+      <c r="E823">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="824" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A824">
+        <v>3</v>
+      </c>
+      <c r="B824">
+        <v>2</v>
+      </c>
+      <c r="C824">
+        <v>29</v>
+      </c>
+      <c r="D824">
+        <v>3</v>
+      </c>
+      <c r="E824">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A825">
+        <v>2</v>
+      </c>
+      <c r="B825">
+        <v>3</v>
+      </c>
+      <c r="C825">
+        <v>22</v>
+      </c>
+      <c r="D825">
+        <v>2</v>
+      </c>
+      <c r="E825">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="826" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A826">
+        <v>3</v>
+      </c>
+      <c r="B826">
+        <v>2</v>
+      </c>
+      <c r="C826">
+        <v>36</v>
+      </c>
+      <c r="D826">
+        <v>8</v>
+      </c>
+      <c r="E826">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="827" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A827">
+        <v>3</v>
+      </c>
+      <c r="B827">
+        <v>2</v>
+      </c>
+      <c r="C827">
+        <v>22</v>
+      </c>
+      <c r="D827">
+        <v>3</v>
+      </c>
+      <c r="E827">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A828">
+        <v>2</v>
+      </c>
+      <c r="B828">
+        <v>2</v>
+      </c>
+      <c r="C828">
+        <v>22</v>
+      </c>
+      <c r="D828">
+        <v>4</v>
+      </c>
+      <c r="E828">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="829" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A829">
+        <v>2</v>
+      </c>
+      <c r="B829">
+        <v>2</v>
+      </c>
+      <c r="C829">
+        <v>23</v>
+      </c>
+      <c r="D829">
+        <v>2</v>
+      </c>
+      <c r="E829">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A830">
+        <v>1</v>
+      </c>
+      <c r="B830">
+        <v>1</v>
+      </c>
+      <c r="C830">
+        <v>34</v>
+      </c>
+      <c r="D830">
+        <v>7</v>
+      </c>
+      <c r="E830">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="831" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A831">
+        <v>3</v>
+      </c>
+      <c r="B831">
+        <v>2</v>
+      </c>
+      <c r="C831">
+        <v>31</v>
+      </c>
+      <c r="D831">
+        <v>7</v>
+      </c>
+      <c r="E831">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="832" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A832">
+        <v>2</v>
+      </c>
+      <c r="B832">
+        <v>2</v>
+      </c>
+      <c r="C832">
+        <v>23</v>
+      </c>
+      <c r="D832">
+        <v>2</v>
+      </c>
+      <c r="E832">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A833">
+        <v>2</v>
+      </c>
+      <c r="B833">
+        <v>2</v>
+      </c>
+      <c r="C833">
+        <v>22</v>
+      </c>
+      <c r="D833">
+        <v>1</v>
+      </c>
+      <c r="E833">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A834">
+        <v>3</v>
+      </c>
+      <c r="B834">
+        <v>2</v>
+      </c>
+      <c r="C834">
+        <v>31</v>
+      </c>
+      <c r="D834">
+        <v>2</v>
+      </c>
+      <c r="E834">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="835" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A835">
+        <v>4</v>
+      </c>
+      <c r="B835">
+        <v>2</v>
+      </c>
+      <c r="C835">
+        <v>22</v>
+      </c>
+      <c r="D835">
+        <v>3</v>
+      </c>
+      <c r="E835">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="836" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A836">
+        <v>3</v>
+      </c>
+      <c r="B836">
+        <v>2</v>
+      </c>
+      <c r="C836">
+        <v>32</v>
+      </c>
+      <c r="D836">
+        <v>4</v>
+      </c>
+      <c r="E836">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="837" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A837">
+        <v>2</v>
+      </c>
+      <c r="B837">
+        <v>2</v>
+      </c>
+      <c r="C837">
+        <v>20</v>
+      </c>
+      <c r="D837">
+        <v>1</v>
+      </c>
+      <c r="E837">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A838">
+        <v>3</v>
+      </c>
+      <c r="B838">
+        <v>2</v>
+      </c>
+      <c r="C838">
+        <v>27</v>
+      </c>
+      <c r="D838">
+        <v>2</v>
+      </c>
+      <c r="E838">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A839">
+        <v>5</v>
+      </c>
+      <c r="B839">
+        <v>4</v>
+      </c>
+      <c r="C839">
+        <v>26</v>
+      </c>
+      <c r="D839">
+        <v>1</v>
+      </c>
+      <c r="E839">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="840" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A840">
+        <v>3</v>
+      </c>
+      <c r="B840">
+        <v>4</v>
+      </c>
+      <c r="C840">
+        <v>25</v>
+      </c>
+      <c r="D840">
+        <v>1</v>
+      </c>
+      <c r="E840">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="841" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A841">
+        <v>4</v>
+      </c>
+      <c r="B841">
+        <v>2</v>
+      </c>
+      <c r="C841">
+        <v>39</v>
+      </c>
+      <c r="D841">
+        <v>7</v>
+      </c>
+      <c r="E841">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="842" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A842">
+        <v>4</v>
+      </c>
+      <c r="B842">
+        <v>3</v>
+      </c>
+      <c r="C842">
+        <v>21</v>
+      </c>
+      <c r="D842">
+        <v>2</v>
+      </c>
+      <c r="E842">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="843" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A843">
+        <v>3</v>
+      </c>
+      <c r="B843">
+        <v>2</v>
+      </c>
+      <c r="C843">
+        <v>35</v>
+      </c>
+      <c r="D843">
+        <v>4</v>
+      </c>
+      <c r="E843">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="844" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A844">
+        <v>3</v>
+      </c>
+      <c r="B844">
+        <v>2</v>
+      </c>
+      <c r="C844">
+        <v>39</v>
+      </c>
+      <c r="D844">
+        <v>9</v>
+      </c>
+      <c r="E844">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A845">
+        <v>1</v>
+      </c>
+      <c r="B845">
+        <v>2</v>
+      </c>
+      <c r="C845">
+        <v>27</v>
+      </c>
+      <c r="D845">
+        <v>2</v>
+      </c>
+      <c r="E845">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A846">
+        <v>3</v>
+      </c>
+      <c r="B846">
+        <v>3</v>
+      </c>
+      <c r="C846">
+        <v>23</v>
+      </c>
+      <c r="D846">
+        <v>1</v>
+      </c>
+      <c r="E846">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="847" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A847">
+        <v>2</v>
+      </c>
+      <c r="B847">
+        <v>2</v>
+      </c>
+      <c r="C847">
+        <v>36</v>
+      </c>
+      <c r="D847">
+        <v>6</v>
+      </c>
+      <c r="E847">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A848">
+        <v>3</v>
+      </c>
+      <c r="B848">
+        <v>2</v>
+      </c>
+      <c r="C848">
+        <v>34</v>
+      </c>
+      <c r="D848">
+        <v>9</v>
+      </c>
+      <c r="E848">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A849">
+        <v>3</v>
+      </c>
+      <c r="B849">
+        <v>2</v>
+      </c>
+      <c r="C849">
+        <v>19</v>
+      </c>
+      <c r="D849">
+        <v>1</v>
+      </c>
+      <c r="E849">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="850" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A850">
+        <v>1</v>
+      </c>
+      <c r="B850">
+        <v>2</v>
+      </c>
+      <c r="C850">
+        <v>19</v>
+      </c>
+      <c r="D850">
+        <v>2</v>
+      </c>
+      <c r="E850">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A851">
+        <v>3</v>
+      </c>
+      <c r="B851">
+        <v>2</v>
+      </c>
+      <c r="C851">
+        <v>37</v>
+      </c>
+      <c r="D851">
+        <v>9</v>
+      </c>
+      <c r="E851">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="852" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A852">
+        <v>3</v>
+      </c>
+      <c r="B852">
+        <v>2</v>
+      </c>
+      <c r="C852">
+        <v>37</v>
+      </c>
+      <c r="D852">
+        <v>5</v>
+      </c>
+      <c r="E852">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="853" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A853">
+        <v>2</v>
+      </c>
+      <c r="B853">
+        <v>2</v>
+      </c>
+      <c r="C853">
+        <v>29</v>
+      </c>
+      <c r="D853">
+        <v>1</v>
+      </c>
+      <c r="E853">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="854" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A854">
+        <v>2</v>
+      </c>
+      <c r="B854">
+        <v>2</v>
+      </c>
+      <c r="C854">
+        <v>24</v>
+      </c>
+      <c r="D854">
+        <v>6</v>
+      </c>
+      <c r="E854">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A855">
+        <v>5</v>
+      </c>
+      <c r="B855">
+        <v>2</v>
+      </c>
+      <c r="C855">
+        <v>33</v>
+      </c>
+      <c r="D855">
+        <v>3</v>
+      </c>
+      <c r="E855">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="856" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A856">
+        <v>4</v>
+      </c>
+      <c r="B856">
+        <v>2</v>
+      </c>
+      <c r="C856">
+        <v>34</v>
+      </c>
+      <c r="D856">
+        <v>4</v>
+      </c>
+      <c r="E856">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="857" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A857">
+        <v>4</v>
+      </c>
+      <c r="B857">
+        <v>2</v>
+      </c>
+      <c r="C857">
+        <v>24</v>
+      </c>
+      <c r="D857">
+        <v>3</v>
+      </c>
+      <c r="E857">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="858" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A858">
+        <v>4</v>
+      </c>
+      <c r="B858">
+        <v>3</v>
+      </c>
+      <c r="C858">
+        <v>22</v>
+      </c>
+      <c r="D858">
+        <v>1</v>
+      </c>
+      <c r="E858">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="859" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A859">
+        <v>4</v>
+      </c>
+      <c r="B859">
+        <v>2</v>
+      </c>
+      <c r="C859">
+        <v>20</v>
+      </c>
+      <c r="D859">
+        <v>1</v>
+      </c>
+      <c r="E859">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="860" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A860">
+        <v>2</v>
+      </c>
+      <c r="B860">
+        <v>2</v>
+      </c>
+      <c r="C860">
+        <v>19</v>
+      </c>
+      <c r="D860">
+        <v>1</v>
+      </c>
+      <c r="E860">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="861" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A861">
+        <v>3</v>
+      </c>
+      <c r="B861">
+        <v>2</v>
+      </c>
+      <c r="C861">
+        <v>25</v>
+      </c>
+      <c r="D861">
+        <v>2</v>
+      </c>
+      <c r="E861">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="862" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A862">
+        <v>3</v>
+      </c>
+      <c r="B862">
+        <v>2</v>
+      </c>
+      <c r="C862">
+        <v>30</v>
+      </c>
+      <c r="D862">
+        <v>1</v>
+      </c>
+      <c r="E862">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="863" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A863">
+        <v>3</v>
+      </c>
+      <c r="B863">
+        <v>3</v>
+      </c>
+      <c r="C863">
+        <v>36</v>
+      </c>
+      <c r="D863">
+        <v>5</v>
+      </c>
+      <c r="E863">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="864" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A864">
+        <v>4</v>
+      </c>
+      <c r="B864">
+        <v>3</v>
+      </c>
+      <c r="C864">
+        <v>29</v>
+      </c>
+      <c r="D864">
+        <v>2</v>
+      </c>
+      <c r="E864">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="865" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A865">
+        <v>2</v>
+      </c>
+      <c r="B865">
+        <v>4</v>
+      </c>
+      <c r="C865">
+        <v>31</v>
+      </c>
+      <c r="D865">
+        <v>3</v>
+      </c>
+      <c r="E865">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="866" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A866">
+        <v>3</v>
+      </c>
+      <c r="B866">
+        <v>3</v>
+      </c>
+      <c r="C866">
+        <v>31</v>
+      </c>
+      <c r="D866">
+        <v>4</v>
+      </c>
+      <c r="E866">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="867" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A867">
+        <v>2</v>
+      </c>
+      <c r="B867">
+        <v>3</v>
+      </c>
+      <c r="C867">
+        <v>38</v>
+      </c>
+      <c r="D867">
+        <v>4</v>
+      </c>
+      <c r="E867">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="868" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A868">
+        <v>2</v>
+      </c>
+      <c r="B868">
+        <v>2</v>
+      </c>
+      <c r="C868">
+        <v>38</v>
+      </c>
+      <c r="D868">
+        <v>8</v>
+      </c>
+      <c r="E868">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="869" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A869">
+        <v>4</v>
+      </c>
+      <c r="B869">
+        <v>2</v>
+      </c>
+      <c r="C869">
+        <v>36</v>
+      </c>
+      <c r="D869">
+        <v>5</v>
+      </c>
+      <c r="E869">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="870" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A870">
+        <v>3</v>
+      </c>
+      <c r="B870">
+        <v>2</v>
+      </c>
+      <c r="C870">
+        <v>27</v>
+      </c>
+      <c r="D870">
+        <v>4</v>
+      </c>
+      <c r="E870">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="871" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A871">
+        <v>3</v>
+      </c>
+      <c r="B871">
+        <v>2</v>
+      </c>
+      <c r="C871">
+        <v>27</v>
+      </c>
+      <c r="D871">
+        <v>3</v>
+      </c>
+      <c r="E871">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="872" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A872">
+        <v>4</v>
+      </c>
+      <c r="B872">
+        <v>3</v>
+      </c>
+      <c r="C872">
+        <v>24</v>
+      </c>
+      <c r="D872">
+        <v>2</v>
+      </c>
+      <c r="E872">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="873" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A873">
+        <v>1</v>
+      </c>
+      <c r="B873">
+        <v>3</v>
+      </c>
+      <c r="C873">
+        <v>29</v>
+      </c>
+      <c r="D873">
+        <v>4</v>
+      </c>
+      <c r="E873">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="874" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A874">
+        <v>3</v>
+      </c>
+      <c r="B874">
+        <v>3</v>
+      </c>
+      <c r="C874">
+        <v>29</v>
+      </c>
+      <c r="D874">
+        <v>3</v>
+      </c>
+      <c r="E874">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="875" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A875">
+        <v>2</v>
+      </c>
+      <c r="B875">
+        <v>3</v>
+      </c>
+      <c r="C875">
+        <v>32</v>
+      </c>
+      <c r="D875">
+        <v>3</v>
+      </c>
+      <c r="E875">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="876" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A876">
+        <v>4</v>
+      </c>
+      <c r="B876">
+        <v>2</v>
+      </c>
+      <c r="C876">
+        <v>29</v>
+      </c>
+      <c r="D876">
+        <v>4</v>
+      </c>
+      <c r="E876">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="877" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A877">
+        <v>4</v>
+      </c>
+      <c r="B877">
+        <v>4</v>
+      </c>
+      <c r="C877">
+        <v>24</v>
+      </c>
+      <c r="D877">
+        <v>1</v>
+      </c>
+      <c r="E877">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="878" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A878">
+        <v>4</v>
+      </c>
+      <c r="B878">
+        <v>2</v>
+      </c>
+      <c r="C878">
+        <v>25</v>
+      </c>
+      <c r="D878">
+        <v>2</v>
+      </c>
+      <c r="E878">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="879" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A879">
+        <v>2</v>
+      </c>
+      <c r="B879">
+        <v>2</v>
+      </c>
+      <c r="C879">
+        <v>20</v>
+      </c>
+      <c r="D879">
+        <v>2</v>
+      </c>
+      <c r="E879">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="880" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A880">
+        <v>3</v>
+      </c>
+      <c r="B880">
+        <v>3</v>
+      </c>
+      <c r="C880">
+        <v>20</v>
+      </c>
+      <c r="D880">
+        <v>1</v>
+      </c>
+      <c r="E880">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="881" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A881">
+        <v>3</v>
+      </c>
+      <c r="B881">
+        <v>3</v>
+      </c>
+      <c r="C881">
+        <v>29</v>
+      </c>
+      <c r="D881">
+        <v>4</v>
+      </c>
+      <c r="E881">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="882" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A882">
+        <v>3</v>
+      </c>
+      <c r="B882">
+        <v>2</v>
+      </c>
+      <c r="C882">
+        <v>20</v>
+      </c>
+      <c r="D882">
+        <v>1</v>
+      </c>
+      <c r="E882">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="883" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A883">
+        <v>3</v>
+      </c>
+      <c r="B883">
+        <v>2</v>
+      </c>
+      <c r="C883">
+        <v>31</v>
+      </c>
+      <c r="D883">
+        <v>6</v>
+      </c>
+      <c r="E883">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="884" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A884">
+        <v>1</v>
+      </c>
+      <c r="B884">
+        <v>2</v>
+      </c>
+      <c r="C884">
+        <v>34</v>
+      </c>
+      <c r="D884">
+        <v>4</v>
+      </c>
+      <c r="E884">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="885" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A885">
+        <v>3</v>
+      </c>
+      <c r="B885">
+        <v>2</v>
+      </c>
+      <c r="C885">
+        <v>37</v>
+      </c>
+      <c r="D885">
+        <v>6</v>
+      </c>
+      <c r="E885">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="886" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A886">
+        <v>2</v>
+      </c>
+      <c r="B886">
+        <v>2</v>
+      </c>
+      <c r="C886">
+        <v>25</v>
+      </c>
+      <c r="D886">
+        <v>2</v>
+      </c>
+      <c r="E886">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="887" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A887">
+        <v>2</v>
+      </c>
+      <c r="B887">
+        <v>2</v>
+      </c>
+      <c r="C887">
+        <v>38</v>
+      </c>
+      <c r="D887">
+        <v>6</v>
+      </c>
+      <c r="E887">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="888" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A888">
+        <v>2</v>
+      </c>
+      <c r="B888">
+        <v>2</v>
+      </c>
+      <c r="C888">
+        <v>20</v>
+      </c>
+      <c r="D888">
+        <v>3</v>
+      </c>
+      <c r="E888">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="889" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A889">
+        <v>2</v>
+      </c>
+      <c r="B889">
+        <v>2</v>
+      </c>
+      <c r="C889">
+        <v>38</v>
+      </c>
+      <c r="D889">
+        <v>8</v>
+      </c>
+      <c r="E889">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="890" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A890">
+        <v>5</v>
+      </c>
+      <c r="B890">
+        <v>2</v>
+      </c>
+      <c r="C890">
+        <v>34</v>
+      </c>
+      <c r="D890">
+        <v>5</v>
+      </c>
+      <c r="E890">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="891" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A891">
+        <v>4</v>
+      </c>
+      <c r="B891">
+        <v>3</v>
+      </c>
+      <c r="C891">
+        <v>34</v>
+      </c>
+      <c r="D891">
+        <v>4</v>
+      </c>
+      <c r="E891">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="892" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A892">
+        <v>3</v>
+      </c>
+      <c r="B892">
+        <v>2</v>
+      </c>
+      <c r="C892">
+        <v>36</v>
+      </c>
+      <c r="D892">
+        <v>8</v>
+      </c>
+      <c r="E892">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="893" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A893">
+        <v>4</v>
+      </c>
+      <c r="B893">
+        <v>3</v>
+      </c>
+      <c r="C893">
+        <v>28</v>
+      </c>
+      <c r="D893">
+        <v>2</v>
+      </c>
+      <c r="E893">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="894" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A894">
+        <v>4</v>
+      </c>
+      <c r="B894">
+        <v>3</v>
+      </c>
+      <c r="C894">
+        <v>19</v>
+      </c>
+      <c r="D894">
+        <v>1</v>
+      </c>
+      <c r="E894">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="895" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A895">
+        <v>4</v>
+      </c>
+      <c r="B895">
+        <v>2</v>
+      </c>
+      <c r="C895">
+        <v>26</v>
+      </c>
+      <c r="D895">
+        <v>3</v>
+      </c>
+      <c r="E895">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="896" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A896">
+        <v>4</v>
+      </c>
+      <c r="B896">
+        <v>2</v>
+      </c>
+      <c r="C896">
+        <v>31</v>
+      </c>
+      <c r="D896">
+        <v>5</v>
+      </c>
+      <c r="E896">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="897" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A897">
+        <v>1</v>
+      </c>
+      <c r="B897">
+        <v>3</v>
+      </c>
+      <c r="C897">
+        <v>40</v>
+      </c>
+      <c r="D897">
+        <v>3</v>
+      </c>
+      <c r="E897">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="898" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A898">
+        <v>3</v>
+      </c>
+      <c r="B898">
+        <v>2</v>
+      </c>
+      <c r="C898">
+        <v>27</v>
+      </c>
+      <c r="D898">
+        <v>1</v>
+      </c>
+      <c r="E898">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="899" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A899">
+        <v>5</v>
+      </c>
+      <c r="B899">
+        <v>4</v>
+      </c>
+      <c r="C899">
+        <v>46</v>
+      </c>
+      <c r="D899">
+        <v>4</v>
+      </c>
+      <c r="E899">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="900" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A900">
+        <v>3</v>
+      </c>
+      <c r="B900">
+        <v>2</v>
+      </c>
+      <c r="C900">
+        <v>23</v>
+      </c>
+      <c r="D900">
+        <v>1</v>
+      </c>
+      <c r="E900">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="901" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A901">
+        <v>4</v>
+      </c>
+      <c r="B901">
+        <v>3</v>
+      </c>
+      <c r="C901">
+        <v>26</v>
+      </c>
+      <c r="D901">
+        <v>2</v>
+      </c>
+      <c r="E901">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="902" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A902">
+        <v>3</v>
+      </c>
+      <c r="B902">
+        <v>3</v>
+      </c>
+      <c r="C902">
+        <v>30</v>
+      </c>
+      <c r="D902">
+        <v>2</v>
+      </c>
+      <c r="E902">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="903" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A903">
+        <v>3</v>
+      </c>
+      <c r="B903">
+        <v>2</v>
+      </c>
+      <c r="C903">
+        <v>22</v>
+      </c>
+      <c r="D903">
+        <v>2</v>
+      </c>
+      <c r="E903">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="904" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A904">
+        <v>2</v>
+      </c>
+      <c r="B904">
+        <v>2</v>
+      </c>
+      <c r="C904">
+        <v>26</v>
+      </c>
+      <c r="D904">
+        <v>2</v>
+      </c>
+      <c r="E904">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="905" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A905">
+        <v>3</v>
+      </c>
+      <c r="B905">
+        <v>2</v>
+      </c>
+      <c r="C905">
+        <v>17</v>
+      </c>
+      <c r="D905">
+        <v>1</v>
+      </c>
+      <c r="E905">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="906" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A906">
+        <v>4</v>
+      </c>
+      <c r="B906">
+        <v>3</v>
+      </c>
+      <c r="C906">
+        <v>29</v>
+      </c>
+      <c r="D906">
+        <v>2</v>
+      </c>
+      <c r="E906">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="907" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A907">
+        <v>4</v>
+      </c>
+      <c r="B907">
+        <v>3</v>
+      </c>
+      <c r="C907">
+        <v>22</v>
+      </c>
+      <c r="D907">
+        <v>1</v>
+      </c>
+      <c r="E907">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="908" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A908">
+        <v>4</v>
+      </c>
+      <c r="B908">
+        <v>2</v>
+      </c>
+      <c r="C908">
+        <v>25</v>
+      </c>
+      <c r="D908">
+        <v>2</v>
+      </c>
+      <c r="E908">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="909" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A909">
+        <v>5</v>
+      </c>
+      <c r="B909">
+        <v>2</v>
+      </c>
+      <c r="C909">
+        <v>20</v>
+      </c>
+      <c r="D909">
+        <v>1</v>
+      </c>
+      <c r="E909">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="910" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A910">
+        <v>5</v>
+      </c>
+      <c r="B910">
+        <v>3</v>
+      </c>
+      <c r="C910">
+        <v>21</v>
+      </c>
+      <c r="D910">
+        <v>1</v>
+      </c>
+      <c r="E910">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="911" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A911">
+        <v>5</v>
+      </c>
+      <c r="B911">
+        <v>3</v>
+      </c>
+      <c r="C911">
+        <v>22</v>
+      </c>
+      <c r="D911">
+        <v>1</v>
+      </c>
+      <c r="E911">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="912" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A912">
+        <v>5</v>
+      </c>
+      <c r="B912">
+        <v>3</v>
+      </c>
+      <c r="C912">
+        <v>36</v>
+      </c>
+      <c r="D912">
+        <v>2</v>
+      </c>
+      <c r="E912">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="913" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A913">
+        <v>5</v>
+      </c>
+      <c r="B913">
+        <v>2</v>
+      </c>
+      <c r="C913">
+        <v>21</v>
+      </c>
+      <c r="D913">
+        <v>1</v>
+      </c>
+      <c r="E913">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="914" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A914">
+        <v>1</v>
+      </c>
+      <c r="B914">
+        <v>3</v>
+      </c>
+      <c r="C914">
+        <v>25</v>
+      </c>
+      <c r="D914">
+        <v>2</v>
+      </c>
+      <c r="E914">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="915" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A915">
+        <v>3</v>
+      </c>
+      <c r="B915">
+        <v>2</v>
+      </c>
+      <c r="C915">
+        <v>21</v>
+      </c>
+      <c r="D915">
+        <v>3</v>
+      </c>
+      <c r="E915">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="916" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A916">
+        <v>3</v>
+      </c>
+      <c r="B916">
+        <v>3</v>
+      </c>
+      <c r="C916">
+        <v>37</v>
+      </c>
+      <c r="D916">
+        <v>5</v>
+      </c>
+      <c r="E916">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="917" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A917">
+        <v>3</v>
+      </c>
+      <c r="B917">
+        <v>3</v>
+      </c>
+      <c r="C917">
+        <v>23</v>
+      </c>
+      <c r="D917">
+        <v>2</v>
+      </c>
+      <c r="E917">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="918" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A918">
+        <v>2</v>
+      </c>
+      <c r="B918">
+        <v>2</v>
+      </c>
+      <c r="C918">
+        <v>35</v>
+      </c>
+      <c r="D918">
+        <v>5</v>
+      </c>
+      <c r="E918">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="919" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A919">
+        <v>4</v>
+      </c>
+      <c r="B919">
+        <v>2</v>
+      </c>
+      <c r="C919">
+        <v>28</v>
+      </c>
+      <c r="D919">
+        <v>2</v>
+      </c>
+      <c r="E919">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="920" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A920">
+        <v>3</v>
+      </c>
+      <c r="B920">
+        <v>4</v>
+      </c>
+      <c r="C920">
+        <v>28</v>
+      </c>
+      <c r="D920">
+        <v>1</v>
+      </c>
+      <c r="E920">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="921" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A921">
+        <v>2</v>
+      </c>
+      <c r="B921">
+        <v>2</v>
+      </c>
+      <c r="C921">
+        <v>28</v>
+      </c>
+      <c r="D921">
+        <v>4</v>
+      </c>
+      <c r="E921">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="922" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A922">
+        <v>2</v>
+      </c>
+      <c r="B922">
+        <v>2</v>
+      </c>
+      <c r="C922">
+        <v>15</v>
+      </c>
+      <c r="D922">
+        <v>1</v>
+      </c>
+      <c r="E922">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="923" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A923">
+        <v>3</v>
+      </c>
+      <c r="B923">
+        <v>2</v>
+      </c>
+      <c r="C923">
+        <v>40</v>
+      </c>
+      <c r="D923">
+        <v>2</v>
+      </c>
+      <c r="E923">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="924" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A924">
+        <v>3</v>
+      </c>
+      <c r="B924">
+        <v>2</v>
+      </c>
+      <c r="C924">
+        <v>40</v>
+      </c>
+      <c r="D924">
+        <v>8</v>
+      </c>
+      <c r="E924">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="925" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A925">
+        <v>1</v>
+      </c>
+      <c r="B925">
+        <v>2</v>
+      </c>
+      <c r="C925">
+        <v>32</v>
+      </c>
+      <c r="D925">
+        <v>8</v>
+      </c>
+      <c r="E925">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="926" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A926">
+        <v>2</v>
+      </c>
+      <c r="B926">
+        <v>2</v>
+      </c>
+      <c r="C926">
+        <v>20</v>
+      </c>
+      <c r="D926">
+        <v>1</v>
+      </c>
+      <c r="E926">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="927" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A927">
+        <v>3</v>
+      </c>
+      <c r="B927">
+        <v>3</v>
+      </c>
+      <c r="C927">
+        <v>38</v>
+      </c>
+      <c r="D927">
+        <v>5</v>
+      </c>
+      <c r="E927">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="928" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A928">
+        <v>1</v>
+      </c>
+      <c r="B928">
+        <v>2</v>
+      </c>
+      <c r="C928">
+        <v>35</v>
+      </c>
+      <c r="D928">
+        <v>6</v>
+      </c>
+      <c r="E928">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="929" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A929">
+        <v>3</v>
+      </c>
+      <c r="B929">
+        <v>2</v>
+      </c>
+      <c r="C929">
+        <v>31</v>
+      </c>
+      <c r="D929">
+        <v>7</v>
+      </c>
+      <c r="E929">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="930" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A930">
+        <v>2</v>
+      </c>
+      <c r="B930">
+        <v>2</v>
+      </c>
+      <c r="C930">
+        <v>19</v>
+      </c>
+      <c r="D930">
+        <v>2</v>
+      </c>
+      <c r="E930">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="931" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A931">
+        <v>2</v>
+      </c>
+      <c r="B931">
+        <v>2</v>
+      </c>
+      <c r="C931">
+        <v>29</v>
+      </c>
+      <c r="D931">
+        <v>7</v>
+      </c>
+      <c r="E931">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="932" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A932">
+        <v>1</v>
+      </c>
+      <c r="B932">
+        <v>2</v>
+      </c>
+      <c r="C932">
+        <v>26</v>
+      </c>
+      <c r="D932">
+        <v>4</v>
+      </c>
+      <c r="E932">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="933" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A933">
+        <v>2</v>
+      </c>
+      <c r="B933">
+        <v>2</v>
+      </c>
+      <c r="C933">
+        <v>24</v>
+      </c>
+      <c r="D933">
+        <v>3</v>
+      </c>
+      <c r="E933">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="934" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A934">
+        <v>2</v>
+      </c>
+      <c r="B934">
+        <v>2</v>
+      </c>
+      <c r="C934">
+        <v>37</v>
+      </c>
+      <c r="D934">
+        <v>6</v>
+      </c>
+      <c r="E934">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="935" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A935">
+        <v>2</v>
+      </c>
+      <c r="B935">
+        <v>2</v>
+      </c>
+      <c r="C935">
+        <v>25</v>
+      </c>
+      <c r="D935">
+        <v>3</v>
+      </c>
+      <c r="E935">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="936" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A936">
+        <v>3</v>
+      </c>
+      <c r="B936">
+        <v>3</v>
+      </c>
+      <c r="C936">
+        <v>27</v>
+      </c>
+      <c r="D936">
+        <v>3</v>
+      </c>
+      <c r="E936">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="937" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A937">
+        <v>2</v>
+      </c>
+      <c r="B937">
+        <v>2</v>
+      </c>
+      <c r="C937">
+        <v>23</v>
+      </c>
+      <c r="D937">
+        <v>2</v>
+      </c>
+      <c r="E937">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="938" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A938">
+        <v>1</v>
+      </c>
+      <c r="B938">
+        <v>2</v>
+      </c>
+      <c r="C938">
+        <v>25</v>
+      </c>
+      <c r="D938">
+        <v>4</v>
+      </c>
+      <c r="E938">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="939" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A939">
+        <v>3</v>
+      </c>
+      <c r="B939">
+        <v>2</v>
+      </c>
+      <c r="C939">
+        <v>40</v>
+      </c>
+      <c r="D939">
+        <v>9</v>
+      </c>
+      <c r="E939">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="940" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A940">
+        <v>2</v>
+      </c>
+      <c r="B940">
+        <v>2</v>
+      </c>
+      <c r="C940">
+        <v>28</v>
+      </c>
+      <c r="D940">
+        <v>5</v>
+      </c>
+      <c r="E940">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="941" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A941">
+        <v>2</v>
+      </c>
+      <c r="B941">
+        <v>2</v>
+      </c>
+      <c r="C941">
+        <v>32</v>
+      </c>
+      <c r="D941">
+        <v>4</v>
+      </c>
+      <c r="E941">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="942" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A942">
+        <v>3</v>
+      </c>
+      <c r="B942">
+        <v>3</v>
+      </c>
+      <c r="C942">
+        <v>25</v>
+      </c>
+      <c r="D942">
+        <v>5</v>
+      </c>
+      <c r="E942">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="943" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A943">
+        <v>2</v>
+      </c>
+      <c r="B943">
+        <v>2</v>
+      </c>
+      <c r="C943">
+        <v>30</v>
+      </c>
+      <c r="D943">
+        <v>6</v>
+      </c>
+      <c r="E943">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="944" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A944">
+        <v>3</v>
+      </c>
+      <c r="B944">
+        <v>3</v>
+      </c>
+      <c r="C944">
+        <v>36</v>
+      </c>
+      <c r="D944">
+        <v>4</v>
+      </c>
+      <c r="E944">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="945" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A945">
+        <v>1</v>
+      </c>
+      <c r="B945">
+        <v>4</v>
+      </c>
+      <c r="C945">
+        <v>30</v>
+      </c>
+      <c r="D945">
+        <v>2</v>
+      </c>
+      <c r="E945">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="946" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A946">
+        <v>1</v>
+      </c>
+      <c r="B946">
+        <v>2</v>
+      </c>
+      <c r="C946">
+        <v>30</v>
+      </c>
+      <c r="D946">
+        <v>6</v>
+      </c>
+      <c r="E946">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="947" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A947">
+        <v>2</v>
+      </c>
+      <c r="B947">
+        <v>2</v>
+      </c>
+      <c r="C947">
+        <v>25</v>
+      </c>
+      <c r="D947">
+        <v>3</v>
+      </c>
+      <c r="E947">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="948" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A948">
+        <v>4</v>
+      </c>
+      <c r="B948">
+        <v>2</v>
+      </c>
+      <c r="C948">
+        <v>22</v>
+      </c>
+      <c r="D948">
+        <v>2</v>
+      </c>
+      <c r="E948">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="949" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A949">
+        <v>3</v>
+      </c>
+      <c r="B949">
+        <v>3</v>
+      </c>
+      <c r="C949">
+        <v>35</v>
+      </c>
+      <c r="D949">
+        <v>4</v>
+      </c>
+      <c r="E949">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="950" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A950">
+        <v>2</v>
+      </c>
+      <c r="B950">
+        <v>2</v>
+      </c>
+      <c r="C950">
+        <v>35</v>
+      </c>
+      <c r="D950">
+        <v>4</v>
+      </c>
+      <c r="E950">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="951" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A951">
+        <v>1</v>
+      </c>
+      <c r="B951">
+        <v>3</v>
+      </c>
+      <c r="C951">
+        <v>23</v>
+      </c>
+      <c r="D951">
+        <v>3</v>
+      </c>
+      <c r="E951">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="952" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A952">
+        <v>3</v>
+      </c>
+      <c r="B952">
+        <v>2</v>
+      </c>
+      <c r="C952">
+        <v>23</v>
+      </c>
+      <c r="D952">
+        <v>2</v>
+      </c>
+      <c r="E952">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="953" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A953">
+        <v>3</v>
+      </c>
+      <c r="B953">
+        <v>3</v>
+      </c>
+      <c r="C953">
+        <v>29</v>
+      </c>
+      <c r="D953">
+        <v>4</v>
+      </c>
+      <c r="E953">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="954" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A954">
+        <v>3</v>
+      </c>
+      <c r="B954">
+        <v>3</v>
+      </c>
+      <c r="C954">
+        <v>26</v>
+      </c>
+      <c r="D954">
+        <v>2</v>
+      </c>
+      <c r="E954">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="955" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A955">
+        <v>1</v>
+      </c>
+      <c r="B955">
+        <v>2</v>
+      </c>
+      <c r="C955">
+        <v>21</v>
+      </c>
+      <c r="D955">
+        <v>2</v>
+      </c>
+      <c r="E955">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="956" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A956">
+        <v>3</v>
+      </c>
+      <c r="B956">
+        <v>2</v>
+      </c>
+      <c r="C956">
+        <v>29</v>
+      </c>
+      <c r="D956">
+        <v>5</v>
+      </c>
+      <c r="E956">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="957" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A957">
+        <v>1</v>
+      </c>
+      <c r="B957">
+        <v>2</v>
+      </c>
+      <c r="C957">
+        <v>40</v>
+      </c>
+      <c r="D957">
+        <v>6</v>
+      </c>
+      <c r="E957">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="958" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A958">
+        <v>2</v>
+      </c>
+      <c r="B958">
+        <v>2</v>
+      </c>
+      <c r="C958">
+        <v>43</v>
+      </c>
+      <c r="D958">
+        <v>7</v>
+      </c>
+      <c r="E958">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="959" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A959">
+        <v>4</v>
+      </c>
+      <c r="B959">
+        <v>3</v>
+      </c>
+      <c r="C959">
+        <v>18</v>
+      </c>
+      <c r="D959">
+        <v>1</v>
+      </c>
+      <c r="E959">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="960" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A960">
+        <v>3</v>
+      </c>
+      <c r="B960">
+        <v>2</v>
+      </c>
+      <c r="C960">
+        <v>37</v>
+      </c>
+      <c r="D960">
+        <v>8</v>
+      </c>
+      <c r="E960">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="961" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A961">
+        <v>2</v>
+      </c>
+      <c r="B961">
+        <v>2</v>
+      </c>
+      <c r="C961">
+        <v>35</v>
+      </c>
+      <c r="D961">
+        <v>9</v>
+      </c>
+      <c r="E961">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="962" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A962">
+        <v>3</v>
+      </c>
+      <c r="B962">
+        <v>3</v>
+      </c>
+      <c r="C962">
+        <v>19</v>
+      </c>
+      <c r="D962">
+        <v>1</v>
+      </c>
+      <c r="E962">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="963" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A963">
+        <v>3</v>
+      </c>
+      <c r="B963">
+        <v>1</v>
+      </c>
+      <c r="C963">
+        <v>24</v>
+      </c>
+      <c r="D963">
+        <v>4</v>
+      </c>
+      <c r="E963">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="964" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A964">
+        <v>2</v>
+      </c>
+      <c r="B964">
+        <v>3</v>
+      </c>
+      <c r="C964">
+        <v>24</v>
+      </c>
+      <c r="D964">
+        <v>1</v>
+      </c>
+      <c r="E964">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="965" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A965">
+        <v>5</v>
+      </c>
+      <c r="B965">
+        <v>4</v>
+      </c>
+      <c r="C965">
+        <v>27</v>
+      </c>
+      <c r="D965">
+        <v>2</v>
+      </c>
+      <c r="E965">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="966" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A966">
+        <v>4</v>
+      </c>
+      <c r="B966">
+        <v>3</v>
+      </c>
+      <c r="C966">
+        <v>28</v>
+      </c>
+      <c r="D966">
+        <v>3</v>
+      </c>
+      <c r="E966">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="967" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A967">
+        <v>4</v>
+      </c>
+      <c r="B967">
+        <v>4</v>
+      </c>
+      <c r="C967">
+        <v>29</v>
+      </c>
+      <c r="D967">
+        <v>2</v>
+      </c>
+      <c r="E967">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="968" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A968">
+        <v>4</v>
+      </c>
+      <c r="B968">
+        <v>2</v>
+      </c>
+      <c r="C968">
+        <v>32</v>
+      </c>
+      <c r="D968">
+        <v>4</v>
+      </c>
+      <c r="E968">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="969" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A969">
+        <v>5</v>
+      </c>
+      <c r="B969">
+        <v>4</v>
+      </c>
+      <c r="C969">
+        <v>33</v>
+      </c>
+      <c r="D969">
+        <v>2</v>
+      </c>
+      <c r="E969">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="970" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A970">
+        <v>5</v>
+      </c>
+      <c r="B970">
+        <v>3</v>
+      </c>
+      <c r="C970">
+        <v>25</v>
+      </c>
+      <c r="D970">
+        <v>1</v>
+      </c>
+      <c r="E970">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="971" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A971">
+        <v>5</v>
+      </c>
+      <c r="B971">
+        <v>3</v>
+      </c>
+      <c r="C971">
+        <v>27</v>
+      </c>
+      <c r="D971">
+        <v>3</v>
+      </c>
+      <c r="E971">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="972" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A972">
+        <v>5</v>
+      </c>
+      <c r="B972">
+        <v>2</v>
+      </c>
+      <c r="C972">
+        <v>24</v>
+      </c>
+      <c r="D972">
+        <v>3</v>
+      </c>
+      <c r="E972">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="973" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A973">
+        <v>2</v>
+      </c>
+      <c r="B973">
+        <v>2</v>
+      </c>
+      <c r="C973">
+        <v>27</v>
+      </c>
+      <c r="D973">
+        <v>4</v>
+      </c>
+      <c r="E973">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="974" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A974">
+        <v>5</v>
+      </c>
+      <c r="B974">
+        <v>4</v>
+      </c>
+      <c r="C974">
+        <v>27</v>
+      </c>
+      <c r="D974">
+        <v>1</v>
+      </c>
+      <c r="E974">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="975" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A975">
+        <v>4</v>
+      </c>
+      <c r="B975">
+        <v>3</v>
+      </c>
+      <c r="C975">
+        <v>23</v>
+      </c>
+      <c r="D975">
+        <v>2</v>
+      </c>
+      <c r="E975">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="976" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A976">
+        <v>5</v>
+      </c>
+      <c r="B976">
+        <v>4</v>
+      </c>
+      <c r="C976">
+        <v>32</v>
+      </c>
+      <c r="D976">
+        <v>3</v>
+      </c>
+      <c r="E976">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="977" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A977">
+        <v>5</v>
+      </c>
+      <c r="B977">
+        <v>3</v>
+      </c>
+      <c r="C977">
+        <v>22</v>
+      </c>
+      <c r="D977">
+        <v>1</v>
+      </c>
+      <c r="E977">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="978" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A978">
+        <v>2</v>
+      </c>
+      <c r="B978">
+        <v>2</v>
+      </c>
+      <c r="C978">
+        <v>32</v>
+      </c>
+      <c r="D978">
+        <v>4</v>
+      </c>
+      <c r="E978">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="979" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A979">
+        <v>2</v>
+      </c>
+      <c r="B979">
+        <v>1</v>
+      </c>
+      <c r="C979">
+        <v>32</v>
+      </c>
+      <c r="D979">
+        <v>8</v>
+      </c>
+      <c r="E979">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="980" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A980">
+        <v>3</v>
+      </c>
+      <c r="B980">
+        <v>2</v>
+      </c>
+      <c r="C980">
+        <v>32</v>
+      </c>
+      <c r="D980">
+        <v>7</v>
+      </c>
+      <c r="E980">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="981" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A981">
+        <v>2</v>
+      </c>
+      <c r="B981">
+        <v>2</v>
+      </c>
+      <c r="C981">
+        <v>21</v>
+      </c>
+      <c r="D981">
+        <v>2</v>
+      </c>
+      <c r="E981">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="982" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A982">
+        <v>2</v>
+      </c>
+      <c r="B982">
+        <v>2</v>
+      </c>
+      <c r="C982">
+        <v>27</v>
+      </c>
+      <c r="D982">
+        <v>5</v>
+      </c>
+      <c r="E982">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="983" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A983">
+        <v>2</v>
+      </c>
+      <c r="B983">
+        <v>2</v>
+      </c>
+      <c r="C983">
+        <v>27</v>
+      </c>
+      <c r="D983">
+        <v>6</v>
+      </c>
+      <c r="E983">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="984" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A984">
+        <v>4</v>
+      </c>
+      <c r="B984">
+        <v>1</v>
+      </c>
+      <c r="C984">
+        <v>36</v>
+      </c>
+      <c r="D984">
+        <v>6</v>
+      </c>
+      <c r="E984">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="985" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A985">
+        <v>2</v>
+      </c>
+      <c r="B985">
+        <v>2</v>
+      </c>
+      <c r="C985">
+        <v>25</v>
+      </c>
+      <c r="D985">
+        <v>4</v>
+      </c>
+      <c r="E985">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="986" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A986">
+        <v>4</v>
+      </c>
+      <c r="B986">
+        <v>2</v>
+      </c>
+      <c r="C986">
+        <v>32</v>
+      </c>
+      <c r="D986">
+        <v>5</v>
+      </c>
+      <c r="E986">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="987" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A987">
+        <v>1</v>
+      </c>
+      <c r="B987">
+        <v>2</v>
+      </c>
+      <c r="C987">
+        <v>25</v>
+      </c>
+      <c r="D987">
+        <v>1</v>
+      </c>
+      <c r="E987">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="988" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A988">
+        <v>2</v>
+      </c>
+      <c r="B988">
+        <v>2</v>
+      </c>
+      <c r="C988">
+        <v>27</v>
+      </c>
+      <c r="D988">
+        <v>4</v>
+      </c>
+      <c r="E988">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="989" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A989">
+        <v>1</v>
+      </c>
+      <c r="B989">
+        <v>3</v>
+      </c>
+      <c r="C989">
+        <v>22</v>
+      </c>
+      <c r="D989">
+        <v>2</v>
+      </c>
+      <c r="E989">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="990" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A990">
+        <v>3</v>
+      </c>
+      <c r="B990">
+        <v>2</v>
+      </c>
+      <c r="C990">
+        <v>24</v>
+      </c>
+      <c r="D990">
+        <v>2</v>
+      </c>
+      <c r="E990">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="991" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A991">
+        <v>2</v>
+      </c>
+      <c r="B991">
+        <v>4</v>
+      </c>
+      <c r="C991">
+        <v>39</v>
+      </c>
+      <c r="D991">
+        <v>4</v>
+      </c>
+      <c r="E991">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="992" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A992">
+        <v>5</v>
+      </c>
+      <c r="B992">
+        <v>4</v>
+      </c>
+      <c r="C992">
+        <v>34</v>
+      </c>
+      <c r="D992">
+        <v>1</v>
+      </c>
+      <c r="E992">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="993" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A993">
+        <v>2</v>
+      </c>
+      <c r="B993">
+        <v>2</v>
+      </c>
+      <c r="C993">
+        <v>31</v>
+      </c>
+      <c r="D993">
+        <v>6</v>
+      </c>
+      <c r="E993">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="994" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A994">
+        <v>2</v>
+      </c>
+      <c r="B994">
+        <v>2</v>
+      </c>
+      <c r="C994">
+        <v>25</v>
+      </c>
+      <c r="D994">
+        <v>1</v>
+      </c>
+      <c r="E994">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="995" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A995">
+        <v>2</v>
+      </c>
+      <c r="B995">
+        <v>2</v>
+      </c>
+      <c r="C995">
+        <v>28</v>
+      </c>
+      <c r="D995">
+        <v>3</v>
+      </c>
+      <c r="E995">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="996" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A996">
+        <v>5</v>
+      </c>
+      <c r="B996">
+        <v>3</v>
+      </c>
+      <c r="C996">
+        <v>23</v>
+      </c>
+      <c r="D996">
+        <v>3</v>
+      </c>
+      <c r="E996">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="997" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A997">
+        <v>1</v>
+      </c>
+      <c r="B997">
+        <v>2</v>
+      </c>
+      <c r="C997">
+        <v>28</v>
+      </c>
+      <c r="D997">
+        <v>3</v>
+      </c>
+      <c r="E997">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="998" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A998">
+        <v>2</v>
+      </c>
+      <c r="B998">
+        <v>2</v>
+      </c>
+      <c r="C998">
+        <v>27</v>
+      </c>
+      <c r="D998">
+        <v>4</v>
+      </c>
+      <c r="E998">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="999" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A999">
+        <v>3</v>
+      </c>
+      <c r="B999">
+        <v>2</v>
+      </c>
+      <c r="C999">
+        <v>30</v>
+      </c>
+      <c r="D999">
+        <v>6</v>
+      </c>
+      <c r="E999">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1000">
+        <v>4</v>
+      </c>
+      <c r="B1000">
+        <v>4</v>
+      </c>
+      <c r="C1000">
+        <v>26</v>
+      </c>
+      <c r="D1000">
+        <v>1</v>
+      </c>
+      <c r="E1000">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1001">
+        <v>2</v>
+      </c>
+      <c r="B1001">
+        <v>2</v>
+      </c>
+      <c r="C1001">
+        <v>25</v>
+      </c>
+      <c r="D1001">
+        <v>3</v>
+      </c>
+      <c r="E1001">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1002">
+        <v>3</v>
+      </c>
+      <c r="B1002">
+        <v>2</v>
+      </c>
+      <c r="C1002">
+        <v>28</v>
+      </c>
+      <c r="D1002">
+        <v>4</v>
+      </c>
+      <c r="E1002">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1003">
+        <v>3</v>
+      </c>
+      <c r="B1003">
+        <v>2</v>
+      </c>
+      <c r="C1003">
+        <v>21</v>
+      </c>
+      <c r="D1003">
+        <v>1</v>
+      </c>
+      <c r="E1003">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1004">
+        <v>3</v>
+      </c>
+      <c r="B1004">
+        <v>2</v>
+      </c>
+      <c r="C1004">
+        <v>27</v>
+      </c>
+      <c r="D1004">
+        <v>4</v>
+      </c>
+      <c r="E1004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1005">
+        <v>3</v>
+      </c>
+      <c r="B1005">
+        <v>1</v>
+      </c>
+      <c r="C1005">
+        <v>31</v>
+      </c>
+      <c r="D1005">
+        <v>6</v>
+      </c>
+      <c r="E1005">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1006">
+        <v>3</v>
+      </c>
+      <c r="B1006">
+        <v>2</v>
+      </c>
+      <c r="C1006">
+        <v>25</v>
+      </c>
+      <c r="D1006">
+        <v>5</v>
+      </c>
+      <c r="E1006">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1007">
+        <v>1</v>
+      </c>
+      <c r="B1007">
+        <v>2</v>
+      </c>
+      <c r="C1007">
+        <v>35</v>
+      </c>
+      <c r="D1007">
+        <v>7</v>
+      </c>
+      <c r="E1007">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1008">
+        <v>3</v>
+      </c>
+      <c r="B1008">
+        <v>2</v>
+      </c>
+      <c r="C1008">
+        <v>21</v>
+      </c>
+      <c r="D1008">
+        <v>2</v>
+      </c>
+      <c r="E1008">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1009">
+        <v>3</v>
+      </c>
+      <c r="B1009">
+        <v>2</v>
+      </c>
+      <c r="C1009">
+        <v>36</v>
+      </c>
+      <c r="D1009">
+        <v>4</v>
+      </c>
+      <c r="E1009">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1010">
+        <v>3</v>
+      </c>
+      <c r="B1010">
+        <v>3</v>
+      </c>
+      <c r="C1010">
+        <v>40</v>
+      </c>
+      <c r="D1010">
+        <v>6</v>
+      </c>
+      <c r="E1010">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1011">
+        <v>2</v>
+      </c>
+      <c r="B1011">
+        <v>2</v>
+      </c>
+      <c r="C1011">
+        <v>24</v>
+      </c>
+      <c r="D1011">
+        <v>4</v>
+      </c>
+      <c r="E1011">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1012">
+        <v>1</v>
+      </c>
+      <c r="B1012">
+        <v>2</v>
+      </c>
+      <c r="C1012">
+        <v>28</v>
+      </c>
+      <c r="D1012">
+        <v>4</v>
+      </c>
+      <c r="E1012">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1013">
+        <v>3</v>
+      </c>
+      <c r="B1013">
+        <v>2</v>
+      </c>
+      <c r="C1013">
+        <v>19</v>
+      </c>
+      <c r="D1013">
+        <v>1</v>
+      </c>
+      <c r="E1013">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1014">
+        <v>2</v>
+      </c>
+      <c r="B1014">
+        <v>2</v>
+      </c>
+      <c r="C1014">
+        <v>28</v>
+      </c>
+      <c r="D1014">
+        <v>3</v>
+      </c>
+      <c r="E1014">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1015">
+        <v>1</v>
+      </c>
+      <c r="B1015">
+        <v>2</v>
+      </c>
+      <c r="C1015">
+        <v>24</v>
+      </c>
+      <c r="D1015">
+        <v>3</v>
+      </c>
+      <c r="E1015">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1016">
+        <v>2</v>
+      </c>
+      <c r="B1016">
+        <v>2</v>
+      </c>
+      <c r="C1016">
+        <v>31</v>
+      </c>
+      <c r="D1016">
+        <v>8</v>
+      </c>
+      <c r="E1016">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1017">
+        <v>2</v>
+      </c>
+      <c r="B1017">
+        <v>2</v>
+      </c>
+      <c r="C1017">
+        <v>21</v>
+      </c>
+      <c r="D1017">
+        <v>2</v>
+      </c>
+      <c r="E1017">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1018">
+        <v>2</v>
+      </c>
+      <c r="B1018">
+        <v>2</v>
+      </c>
+      <c r="C1018">
+        <v>21</v>
+      </c>
+      <c r="D1018">
+        <v>2</v>
+      </c>
+      <c r="E1018">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1019">
+        <v>3</v>
+      </c>
+      <c r="B1019">
+        <v>2</v>
+      </c>
+      <c r="C1019">
+        <v>34</v>
+      </c>
+      <c r="D1019">
+        <v>7</v>
+      </c>
+      <c r="E1019">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1020">
+        <v>4</v>
+      </c>
+      <c r="B1020">
+        <v>2</v>
+      </c>
+      <c r="C1020">
+        <v>45</v>
+      </c>
+      <c r="D1020">
+        <v>7</v>
+      </c>
+      <c r="E1020">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1021">
+        <v>3</v>
+      </c>
+      <c r="B1021">
+        <v>2</v>
+      </c>
+      <c r="C1021">
+        <v>27</v>
+      </c>
+      <c r="D1021">
+        <v>6</v>
+      </c>
+      <c r="E1021">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1022">
+        <v>3</v>
+      </c>
+      <c r="B1022">
+        <v>2</v>
+      </c>
+      <c r="C1022">
+        <v>26</v>
+      </c>
+      <c r="D1022">
+        <v>2</v>
+      </c>
+      <c r="E1022">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1023">
+        <v>5</v>
+      </c>
+      <c r="B1023">
+        <v>2</v>
+      </c>
+      <c r="C1023">
+        <v>37</v>
+      </c>
+      <c r="D1023">
+        <v>5</v>
+      </c>
+      <c r="E1023">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1024">
+        <v>3</v>
+      </c>
+      <c r="B1024">
+        <v>2</v>
+      </c>
+      <c r="C1024">
+        <v>26</v>
+      </c>
+      <c r="D1024">
+        <v>3</v>
+      </c>
+      <c r="E1024">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1025">
+        <v>1</v>
+      </c>
+      <c r="B1025">
+        <v>2</v>
+      </c>
+      <c r="C1025">
+        <v>34</v>
+      </c>
+      <c r="D1025">
+        <v>6</v>
+      </c>
+      <c r="E1025">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1026">
+        <v>2</v>
+      </c>
+      <c r="B1026">
+        <v>4</v>
+      </c>
+      <c r="C1026">
+        <v>25</v>
+      </c>
+      <c r="D1026">
+        <v>1</v>
+      </c>
+      <c r="E1026">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1027">
+        <v>2</v>
+      </c>
+      <c r="B1027">
+        <v>2</v>
+      </c>
+      <c r="C1027">
+        <v>19</v>
+      </c>
+      <c r="D1027">
+        <v>1</v>
+      </c>
+      <c r="E1027">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1028">
+        <v>4</v>
+      </c>
+      <c r="B1028">
+        <v>3</v>
+      </c>
+      <c r="C1028">
+        <v>20</v>
+      </c>
+      <c r="D1028">
+        <v>1</v>
+      </c>
+      <c r="E1028">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1029">
+        <v>2</v>
+      </c>
+      <c r="B1029">
+        <v>2</v>
+      </c>
+      <c r="C1029">
+        <v>23</v>
+      </c>
+      <c r="D1029">
+        <v>2</v>
+      </c>
+      <c r="E1029">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1030">
+        <v>3</v>
+      </c>
+      <c r="B1030">
+        <v>3</v>
+      </c>
+      <c r="C1030">
+        <v>28</v>
+      </c>
+      <c r="D1030">
+        <v>3</v>
+      </c>
+      <c r="E1030">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1031">
+        <v>4</v>
+      </c>
+      <c r="B1031">
+        <v>2</v>
+      </c>
+      <c r="C1031">
+        <v>20</v>
+      </c>
+      <c r="D1031">
+        <v>1</v>
+      </c>
+      <c r="E1031">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1032">
+        <v>3</v>
+      </c>
+      <c r="B1032">
+        <v>2</v>
+      </c>
+      <c r="C1032">
+        <v>19</v>
+      </c>
+      <c r="D1032">
+        <v>1</v>
+      </c>
+      <c r="E1032">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1033">
+        <v>3</v>
+      </c>
+      <c r="B1033">
+        <v>2</v>
+      </c>
+      <c r="C1033">
+        <v>25</v>
+      </c>
+      <c r="D1033">
+        <v>6</v>
+      </c>
+      <c r="E1033">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1034">
+        <v>3</v>
+      </c>
+      <c r="B1034">
+        <v>2</v>
+      </c>
+      <c r="C1034">
+        <v>44</v>
+      </c>
+      <c r="D1034">
+        <v>7</v>
+      </c>
+      <c r="E1034">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1035">
+        <v>4</v>
+      </c>
+      <c r="B1035">
+        <v>2</v>
+      </c>
+      <c r="C1035">
+        <v>22</v>
+      </c>
+      <c r="D1035">
+        <v>1</v>
+      </c>
+      <c r="E1035">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1036">
+        <v>4</v>
+      </c>
+      <c r="B1036">
+        <v>2</v>
+      </c>
+      <c r="C1036">
+        <v>26</v>
+      </c>
+      <c r="D1036">
+        <v>3</v>
+      </c>
+      <c r="E1036">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1037">
+        <v>1</v>
+      </c>
+      <c r="B1037">
+        <v>2</v>
+      </c>
+      <c r="C1037">
+        <v>36</v>
+      </c>
+      <c r="D1037">
+        <v>6</v>
+      </c>
+      <c r="E1037">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1038">
+        <v>3</v>
+      </c>
+      <c r="B1038">
+        <v>2</v>
+      </c>
+      <c r="C1038">
+        <v>20</v>
+      </c>
+      <c r="D1038">
+        <v>1</v>
+      </c>
+      <c r="E1038">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1039" s="2">
+        <v>3</v>
+      </c>
+      <c r="B1039" s="2">
+        <v>2</v>
+      </c>
+      <c r="C1039" s="2">
+        <v>25</v>
+      </c>
+      <c r="D1039" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1039" s="2">
         <v>11</v>
       </c>
     </row>
